--- a/DDAf_2022_Tableau_annexe_Tab16.xlsx
+++ b/DDAf_2022_Tableau_annexe_Tab16.xlsx
@@ -9,7 +9,7 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="10990"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="12490"/>
   </bookViews>
   <sheets>
     <sheet name="Tab16" sheetId="1" r:id="rId1"/>
@@ -64,7 +64,7 @@
     <t>BWA</t>
   </si>
   <si>
-    <t>Botswana*</t>
+    <t>Botswana</t>
   </si>
   <si>
     <t>SWZ</t>
@@ -106,7 +106,7 @@
     <t>ZMB</t>
   </si>
   <si>
-    <t>Zambie*</t>
+    <t>Zambie</t>
   </si>
   <si>
     <t>ZWE</t>
@@ -148,13 +148,13 @@
     <t>COG</t>
   </si>
   <si>
-    <t>Congo*</t>
+    <t>République du Congo*</t>
   </si>
   <si>
     <t>COD</t>
   </si>
   <si>
-    <t>DR Congo*</t>
+    <t>RD Congo</t>
   </si>
   <si>
     <t>GNQ</t>
@@ -175,7 +175,7 @@
     <t>STP</t>
   </si>
   <si>
-    <t>São Tomé and Príncipe</t>
+    <t>Sao Tomé-et-Principe</t>
   </si>
   <si>
     <t>Afrique Centrale</t>
@@ -244,7 +244,7 @@
     <t>SSD</t>
   </si>
   <si>
-    <t>Soudan du Sud*</t>
+    <t>Soudan du Sud</t>
   </si>
   <si>
     <t>SDN</t>
@@ -256,7 +256,7 @@
     <t>TZA</t>
   </si>
   <si>
-    <t>UR of Tanzania</t>
+    <t>Tanzanie</t>
   </si>
   <si>
     <t>UGA</t>
@@ -358,7 +358,7 @@
     <t>LBR</t>
   </si>
   <si>
-    <t>Libéria</t>
+    <t>Liberia</t>
   </si>
   <si>
     <t>MLI</t>
@@ -376,7 +376,7 @@
     <t>NGA</t>
   </si>
   <si>
-    <t>Nigéria*</t>
+    <t>Nigeria*</t>
   </si>
   <si>
     <t>SEN</t>
@@ -394,7 +394,7 @@
     <t>TGO</t>
   </si>
   <si>
-    <t>Togo*</t>
+    <t>Togo</t>
   </si>
   <si>
     <t>Afrique de l'Ouest</t>

--- a/DDAf_2022_Tableau_annexe_Tab16.xlsx
+++ b/DDAf_2022_Tableau_annexe_Tab16.xlsx
@@ -9,7 +9,7 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="12490"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="10490"/>
   </bookViews>
   <sheets>
     <sheet name="Tab16" sheetId="1" r:id="rId1"/>
@@ -23,10 +23,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="213" uniqueCount="170">
-  <si>
-    <t>Retour au Contenu</t>
-  </si>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="212" uniqueCount="169">
   <si>
     <t>Tableau 16 : Bien-être subjectif</t>
   </si>
@@ -1293,11 +1290,9 @@
   <sheetData>
     <row r="1" spans="1:8" ht="15" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A1" s="1"/>
-      <c r="B1" s="2" t="s">
+      <c r="B1" s="2"/>
+      <c r="C1" s="3" t="s">
         <v>0</v>
-      </c>
-      <c r="C1" s="3" t="s">
-        <v>1</v>
       </c>
       <c r="D1" s="3"/>
       <c r="E1" s="3"/>
@@ -1307,36 +1302,36 @@
     </row>
     <row r="2" spans="1:8" ht="42.5" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A2" s="5" t="s">
+        <v>1</v>
+      </c>
+      <c r="B2" s="6" t="s">
         <v>2</v>
       </c>
-      <c r="B2" s="6" t="s">
+      <c r="C2" s="7" t="s">
         <v>3</v>
       </c>
-      <c r="C2" s="7" t="s">
+      <c r="D2" s="8" t="s">
         <v>4</v>
       </c>
-      <c r="D2" s="8" t="s">
+      <c r="E2" s="8" t="s">
         <v>5</v>
       </c>
-      <c r="E2" s="8" t="s">
+      <c r="F2" s="8" t="s">
         <v>6</v>
       </c>
-      <c r="F2" s="8" t="s">
+      <c r="G2" s="8" t="s">
         <v>7</v>
       </c>
-      <c r="G2" s="8" t="s">
+      <c r="H2" s="9" t="s">
         <v>8</v>
-      </c>
-      <c r="H2" s="9" t="s">
-        <v>9</v>
       </c>
     </row>
     <row r="3" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A3" s="10" t="s">
+        <v>9</v>
+      </c>
+      <c r="B3" s="11" t="s">
         <v>10</v>
-      </c>
-      <c r="B3" s="11" t="s">
-        <v>11</v>
       </c>
       <c r="C3" s="12">
         <v>3.7948379516601598</v>
@@ -1359,10 +1354,10 @@
     </row>
     <row r="4" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A4" s="10" t="s">
+        <v>11</v>
+      </c>
+      <c r="B4" s="14" t="s">
         <v>12</v>
-      </c>
-      <c r="B4" s="14" t="s">
-        <v>13</v>
       </c>
       <c r="C4" s="15">
         <v>3.4710848331451398</v>
@@ -1385,10 +1380,10 @@
     </row>
     <row r="5" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A5" s="17" t="s">
+        <v>13</v>
+      </c>
+      <c r="B5" s="18" t="s">
         <v>14</v>
-      </c>
-      <c r="B5" s="18" t="s">
-        <v>15</v>
       </c>
       <c r="C5" s="19">
         <v>4.3961148262023899</v>
@@ -1411,10 +1406,10 @@
     </row>
     <row r="6" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A6" s="17" t="s">
+        <v>15</v>
+      </c>
+      <c r="B6" s="18" t="s">
         <v>16</v>
-      </c>
-      <c r="B6" s="18" t="s">
-        <v>17</v>
       </c>
       <c r="C6" s="19">
         <v>3.51178050041199</v>
@@ -1437,10 +1432,10 @@
     </row>
     <row r="7" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A7" s="17" t="s">
+        <v>17</v>
+      </c>
+      <c r="B7" s="18" t="s">
         <v>18</v>
-      </c>
-      <c r="B7" s="18" t="s">
-        <v>19</v>
       </c>
       <c r="C7" s="19">
         <v>3.8691236972808798</v>
@@ -1463,10 +1458,10 @@
     </row>
     <row r="8" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A8" s="17" t="s">
+        <v>19</v>
+      </c>
+      <c r="B8" s="18" t="s">
         <v>20</v>
-      </c>
-      <c r="B8" s="18" t="s">
-        <v>21</v>
       </c>
       <c r="C8" s="19">
         <v>4.9321327209472701</v>
@@ -1489,10 +1484,10 @@
     </row>
     <row r="9" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A9" s="17" t="s">
+        <v>21</v>
+      </c>
+      <c r="B9" s="18" t="s">
         <v>22</v>
-      </c>
-      <c r="B9" s="18" t="s">
-        <v>23</v>
       </c>
       <c r="C9" s="19">
         <v>4.45101022720337</v>
@@ -1515,10 +1510,10 @@
     </row>
     <row r="10" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A10" s="17" t="s">
+        <v>23</v>
+      </c>
+      <c r="B10" s="18" t="s">
         <v>24</v>
-      </c>
-      <c r="B10" s="18" t="s">
-        <v>25</v>
       </c>
       <c r="C10" s="19">
         <v>4.9468007087707502</v>
@@ -1541,10 +1536,10 @@
     </row>
     <row r="11" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A11" s="10" t="s">
+        <v>25</v>
+      </c>
+      <c r="B11" s="18" t="s">
         <v>26</v>
-      </c>
-      <c r="B11" s="18" t="s">
-        <v>27</v>
       </c>
       <c r="C11" s="15">
         <v>4.8379921913146999</v>
@@ -1567,10 +1562,10 @@
     </row>
     <row r="12" spans="1:8" ht="15" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A12" s="17" t="s">
+        <v>27</v>
+      </c>
+      <c r="B12" s="21" t="s">
         <v>28</v>
-      </c>
-      <c r="B12" s="21" t="s">
-        <v>29</v>
       </c>
       <c r="C12" s="22">
         <v>3.1598021984100302</v>
@@ -1593,10 +1588,10 @@
     </row>
     <row r="13" spans="1:8" ht="15" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A13" s="24" t="s">
+        <v>29</v>
+      </c>
+      <c r="B13" s="25" t="s">
         <v>30</v>
-      </c>
-      <c r="B13" s="25" t="s">
-        <v>31</v>
       </c>
       <c r="C13" s="26">
         <v>4.1370679855346699</v>
@@ -1619,10 +1614,10 @@
     </row>
     <row r="14" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A14" s="17" t="s">
+        <v>31</v>
+      </c>
+      <c r="B14" s="18" t="s">
         <v>32</v>
-      </c>
-      <c r="B14" s="18" t="s">
-        <v>33</v>
       </c>
       <c r="C14" s="19">
         <v>3.7752830982208301</v>
@@ -1645,10 +1640,10 @@
     </row>
     <row r="15" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A15" s="17" t="s">
+        <v>33</v>
+      </c>
+      <c r="B15" s="18" t="s">
         <v>34</v>
-      </c>
-      <c r="B15" s="18" t="s">
-        <v>35</v>
       </c>
       <c r="C15" s="19">
         <v>5.2410778999328604</v>
@@ -1671,10 +1666,10 @@
     </row>
     <row r="16" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A16" s="17" t="s">
+        <v>35</v>
+      </c>
+      <c r="B16" s="18" t="s">
         <v>36</v>
-      </c>
-      <c r="B16" s="18" t="s">
-        <v>37</v>
       </c>
       <c r="C16" s="19">
         <v>3.4758620262146001</v>
@@ -1697,10 +1692,10 @@
     </row>
     <row r="17" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A17" s="10" t="s">
+        <v>37</v>
+      </c>
+      <c r="B17" s="28" t="s">
         <v>38</v>
-      </c>
-      <c r="B17" s="28" t="s">
-        <v>39</v>
       </c>
       <c r="C17" s="12">
         <v>4.2507991790771502</v>
@@ -1723,10 +1718,10 @@
     </row>
     <row r="18" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A18" s="10" t="s">
+        <v>39</v>
+      </c>
+      <c r="B18" s="28" t="s">
         <v>40</v>
-      </c>
-      <c r="B18" s="28" t="s">
-        <v>41</v>
       </c>
       <c r="C18" s="12">
         <v>5.2126226425170898</v>
@@ -1749,10 +1744,10 @@
     </row>
     <row r="19" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A19" s="10" t="s">
+        <v>41</v>
+      </c>
+      <c r="B19" s="18" t="s">
         <v>42</v>
-      </c>
-      <c r="B19" s="18" t="s">
-        <v>43</v>
       </c>
       <c r="C19" s="15">
         <v>4.3110332489013699</v>
@@ -1775,36 +1770,36 @@
     </row>
     <row r="20" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A20" s="10" t="s">
+        <v>43</v>
+      </c>
+      <c r="B20" s="28" t="s">
         <v>44</v>
       </c>
-      <c r="B20" s="28" t="s">
+      <c r="C20" s="12" t="s">
         <v>45</v>
       </c>
-      <c r="C20" s="12" t="s">
-        <v>46</v>
-      </c>
       <c r="D20" s="12" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="E20" s="12" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="F20" s="12" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="G20" s="12" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="H20" s="13" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
     </row>
     <row r="21" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A21" s="10" t="s">
+        <v>46</v>
+      </c>
+      <c r="B21" s="28" t="s">
         <v>47</v>
-      </c>
-      <c r="B21" s="28" t="s">
-        <v>48</v>
       </c>
       <c r="C21" s="12">
         <v>4.9143934249877903</v>
@@ -1827,36 +1822,36 @@
     </row>
     <row r="22" spans="1:8" ht="15" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A22" s="17" t="s">
+        <v>48</v>
+      </c>
+      <c r="B22" s="18" t="s">
         <v>49</v>
       </c>
-      <c r="B22" s="18" t="s">
-        <v>50</v>
-      </c>
       <c r="C22" s="19" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="D22" s="19" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="E22" s="19" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="F22" s="19" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="G22" s="19" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="H22" s="20" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
     </row>
     <row r="23" spans="1:8" ht="15" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A23" s="24" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="B23" s="25" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="C23" s="26">
         <v>4.4544387885502399</v>
@@ -1879,10 +1874,10 @@
     </row>
     <row r="24" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A24" s="17" t="s">
+        <v>51</v>
+      </c>
+      <c r="B24" s="18" t="s">
         <v>52</v>
-      </c>
-      <c r="B24" s="18" t="s">
-        <v>53</v>
       </c>
       <c r="C24" s="19">
         <v>4.6086163520812997</v>
@@ -1905,10 +1900,10 @@
     </row>
     <row r="25" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A25" s="17" t="s">
+        <v>53</v>
+      </c>
+      <c r="B25" s="18" t="s">
         <v>54</v>
-      </c>
-      <c r="B25" s="18" t="s">
-        <v>55</v>
       </c>
       <c r="C25" s="19">
         <v>4.3691935539245597</v>
@@ -1931,36 +1926,36 @@
     </row>
     <row r="26" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A26" s="17" t="s">
+        <v>55</v>
+      </c>
+      <c r="B26" s="18" t="s">
         <v>56</v>
       </c>
-      <c r="B26" s="18" t="s">
-        <v>57</v>
-      </c>
       <c r="C26" s="19" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="D26" s="19" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="E26" s="19" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="F26" s="19" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="G26" s="19" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="H26" s="20" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
     </row>
     <row r="27" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A27" s="17" t="s">
+        <v>57</v>
+      </c>
+      <c r="B27" s="18" t="s">
         <v>58</v>
-      </c>
-      <c r="B27" s="18" t="s">
-        <v>59</v>
       </c>
       <c r="C27" s="19">
         <v>4.5492196083068901</v>
@@ -1983,10 +1978,10 @@
     </row>
     <row r="28" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A28" s="17" t="s">
+        <v>59</v>
+      </c>
+      <c r="B28" s="18" t="s">
         <v>60</v>
-      </c>
-      <c r="B28" s="18" t="s">
-        <v>61</v>
       </c>
       <c r="C28" s="19">
         <v>4.5465841293334996</v>
@@ -2009,10 +2004,10 @@
     </row>
     <row r="29" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A29" s="17" t="s">
+        <v>61</v>
+      </c>
+      <c r="B29" s="18" t="s">
         <v>62</v>
-      </c>
-      <c r="B29" s="18" t="s">
-        <v>63</v>
       </c>
       <c r="C29" s="19">
         <v>4.3390874862670898</v>
@@ -2035,10 +2030,10 @@
     </row>
     <row r="30" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A30" s="17" t="s">
+        <v>63</v>
+      </c>
+      <c r="B30" s="18" t="s">
         <v>64</v>
-      </c>
-      <c r="B30" s="18" t="s">
-        <v>65</v>
       </c>
       <c r="C30" s="19">
         <v>6.0153002738952699</v>
@@ -2061,10 +2056,10 @@
     </row>
     <row r="31" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A31" s="17" t="s">
+        <v>65</v>
+      </c>
+      <c r="B31" s="18" t="s">
         <v>66</v>
-      </c>
-      <c r="B31" s="18" t="s">
-        <v>67</v>
       </c>
       <c r="C31" s="19">
         <v>3.2681522369384801</v>
@@ -2087,36 +2082,36 @@
     </row>
     <row r="32" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A32" s="17" t="s">
+        <v>67</v>
+      </c>
+      <c r="B32" s="18" t="s">
         <v>68</v>
       </c>
-      <c r="B32" s="18" t="s">
-        <v>69</v>
-      </c>
       <c r="C32" s="19" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="D32" s="19" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="E32" s="19" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="F32" s="19" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="G32" s="19" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="H32" s="20" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
     </row>
     <row r="33" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A33" s="17" t="s">
+        <v>69</v>
+      </c>
+      <c r="B33" s="18" t="s">
         <v>70</v>
-      </c>
-      <c r="B33" s="18" t="s">
-        <v>71</v>
       </c>
       <c r="C33" s="19">
         <v>4.6679410934448304</v>
@@ -2131,7 +2126,7 @@
         <v>0.91732281446456998</v>
       </c>
       <c r="G33" s="19" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="H33" s="20">
         <v>0.59441655874251997</v>
@@ -2139,10 +2134,10 @@
     </row>
     <row r="34" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A34" s="10" t="s">
+        <v>71</v>
+      </c>
+      <c r="B34" s="14" t="s">
         <v>72</v>
-      </c>
-      <c r="B34" s="14" t="s">
-        <v>73</v>
       </c>
       <c r="C34" s="15">
         <v>2.81662249565125</v>
@@ -2157,7 +2152,7 @@
         <v>0.45601108670235002</v>
       </c>
       <c r="G34" s="15" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="H34" s="16">
         <v>0.55682265758514005</v>
@@ -2165,10 +2160,10 @@
     </row>
     <row r="35" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A35" s="17" t="s">
+        <v>73</v>
+      </c>
+      <c r="B35" s="18" t="s">
         <v>74</v>
-      </c>
-      <c r="B35" s="18" t="s">
-        <v>75</v>
       </c>
       <c r="C35" s="19">
         <v>4.13867282867432</v>
@@ -2191,10 +2186,10 @@
     </row>
     <row r="36" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A36" s="17" t="s">
+        <v>75</v>
+      </c>
+      <c r="B36" s="18" t="s">
         <v>76</v>
-      </c>
-      <c r="B36" s="18" t="s">
-        <v>77</v>
       </c>
       <c r="C36" s="19">
         <v>3.78568410873413</v>
@@ -2217,10 +2212,10 @@
     </row>
     <row r="37" spans="1:8" ht="15" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A37" s="17" t="s">
+        <v>77</v>
+      </c>
+      <c r="B37" s="18" t="s">
         <v>78</v>
-      </c>
-      <c r="B37" s="18" t="s">
-        <v>79</v>
       </c>
       <c r="C37" s="19">
         <v>4.6409096717834499</v>
@@ -2243,10 +2238,10 @@
     </row>
     <row r="38" spans="1:8" ht="15" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A38" s="24" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="B38" s="25" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="C38" s="26">
         <v>4.3121653199195897</v>
@@ -2269,10 +2264,10 @@
     </row>
     <row r="39" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A39" s="10" t="s">
+        <v>80</v>
+      </c>
+      <c r="B39" s="29" t="s">
         <v>81</v>
-      </c>
-      <c r="B39" s="29" t="s">
-        <v>82</v>
       </c>
       <c r="C39" s="12">
         <v>4.7446274757385298</v>
@@ -2295,10 +2290,10 @@
     </row>
     <row r="40" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A40" s="17" t="s">
+        <v>82</v>
+      </c>
+      <c r="B40" s="18" t="s">
         <v>83</v>
-      </c>
-      <c r="B40" s="18" t="s">
-        <v>84</v>
       </c>
       <c r="C40" s="19">
         <v>4.4723968505859402</v>
@@ -2321,10 +2316,10 @@
     </row>
     <row r="41" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A41" s="10" t="s">
+        <v>84</v>
+      </c>
+      <c r="B41" s="29" t="s">
         <v>85</v>
-      </c>
-      <c r="B41" s="29" t="s">
-        <v>86</v>
       </c>
       <c r="C41" s="12">
         <v>5.33022212982178</v>
@@ -2347,10 +2342,10 @@
     </row>
     <row r="42" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A42" s="10" t="s">
+        <v>86</v>
+      </c>
+      <c r="B42" s="29" t="s">
         <v>87</v>
-      </c>
-      <c r="B42" s="29" t="s">
-        <v>88</v>
       </c>
       <c r="C42" s="12">
         <v>4.1526193618774396</v>
@@ -2373,10 +2368,10 @@
     </row>
     <row r="43" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A43" s="17" t="s">
+        <v>88</v>
+      </c>
+      <c r="B43" s="18" t="s">
         <v>89</v>
-      </c>
-      <c r="B43" s="18" t="s">
-        <v>90</v>
       </c>
       <c r="C43" s="19">
         <v>4.8026175498962402</v>
@@ -2399,10 +2394,10 @@
     </row>
     <row r="44" spans="1:8" ht="15" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A44" s="17" t="s">
+        <v>90</v>
+      </c>
+      <c r="B44" s="18" t="s">
         <v>91</v>
-      </c>
-      <c r="B44" s="18" t="s">
-        <v>92</v>
       </c>
       <c r="C44" s="19">
         <v>4.7308111190795898</v>
@@ -2425,10 +2420,10 @@
     </row>
     <row r="45" spans="1:8" ht="15" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A45" s="24" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="B45" s="25" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="C45" s="26">
         <v>4.7055490811665903</v>
@@ -2451,10 +2446,10 @@
     </row>
     <row r="46" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A46" s="17" t="s">
+        <v>93</v>
+      </c>
+      <c r="B46" s="18" t="s">
         <v>94</v>
-      </c>
-      <c r="B46" s="18" t="s">
-        <v>95</v>
       </c>
       <c r="C46" s="19">
         <v>4.4077458381652797</v>
@@ -2477,10 +2472,10 @@
     </row>
     <row r="47" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A47" s="17" t="s">
+        <v>95</v>
+      </c>
+      <c r="B47" s="18" t="s">
         <v>96</v>
-      </c>
-      <c r="B47" s="18" t="s">
-        <v>97</v>
       </c>
       <c r="C47" s="19">
         <v>4.7408928871154803</v>
@@ -2503,36 +2498,36 @@
     </row>
     <row r="48" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A48" s="17" t="s">
+        <v>97</v>
+      </c>
+      <c r="B48" s="18" t="s">
         <v>98</v>
       </c>
-      <c r="B48" s="18" t="s">
-        <v>99</v>
-      </c>
       <c r="C48" s="19" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="D48" s="19" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="E48" s="19" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="F48" s="19" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="G48" s="19" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="H48" s="20" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
     </row>
     <row r="49" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A49" s="17" t="s">
+        <v>99</v>
+      </c>
+      <c r="B49" s="18" t="s">
         <v>100</v>
-      </c>
-      <c r="B49" s="18" t="s">
-        <v>101</v>
       </c>
       <c r="C49" s="19">
         <v>5.2565035820007298</v>
@@ -2555,10 +2550,10 @@
     </row>
     <row r="50" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A50" s="17" t="s">
+        <v>101</v>
+      </c>
+      <c r="B50" s="18" t="s">
         <v>102</v>
-      </c>
-      <c r="B50" s="18" t="s">
-        <v>103</v>
       </c>
       <c r="C50" s="19">
         <v>5.1636271476745597</v>
@@ -2581,10 +2576,10 @@
     </row>
     <row r="51" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A51" s="10" t="s">
+        <v>103</v>
+      </c>
+      <c r="B51" s="14" t="s">
         <v>104</v>
-      </c>
-      <c r="B51" s="14" t="s">
-        <v>105</v>
       </c>
       <c r="C51" s="15">
         <v>5.3194832801818901</v>
@@ -2607,10 +2602,10 @@
     </row>
     <row r="52" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A52" s="17" t="s">
+        <v>105</v>
+      </c>
+      <c r="B52" s="18" t="s">
         <v>106</v>
-      </c>
-      <c r="B52" s="18" t="s">
-        <v>107</v>
       </c>
       <c r="C52" s="19">
         <v>4.7676844596862802</v>
@@ -2633,36 +2628,36 @@
     </row>
     <row r="53" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A53" s="17" t="s">
+        <v>107</v>
+      </c>
+      <c r="B53" s="18" t="s">
         <v>108</v>
       </c>
-      <c r="B53" s="18" t="s">
-        <v>109</v>
-      </c>
       <c r="C53" s="19" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="D53" s="19" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="E53" s="19" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="F53" s="19" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="G53" s="19" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="H53" s="20" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
     </row>
     <row r="54" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A54" s="17" t="s">
+        <v>109</v>
+      </c>
+      <c r="B54" s="18" t="s">
         <v>110</v>
-      </c>
-      <c r="B54" s="18" t="s">
-        <v>111</v>
       </c>
       <c r="C54" s="19">
         <v>5.12146091461182</v>
@@ -2685,10 +2680,10 @@
     </row>
     <row r="55" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A55" s="17" t="s">
+        <v>111</v>
+      </c>
+      <c r="B55" s="18" t="s">
         <v>112</v>
-      </c>
-      <c r="B55" s="18" t="s">
-        <v>113</v>
       </c>
       <c r="C55" s="19">
         <v>4.9879918098449698</v>
@@ -2711,10 +2706,10 @@
     </row>
     <row r="56" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A56" s="17" t="s">
+        <v>113</v>
+      </c>
+      <c r="B56" s="18" t="s">
         <v>114</v>
-      </c>
-      <c r="B56" s="18" t="s">
-        <v>115</v>
       </c>
       <c r="C56" s="19">
         <v>5.00354433059693</v>
@@ -2737,10 +2732,10 @@
     </row>
     <row r="57" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A57" s="10" t="s">
+        <v>115</v>
+      </c>
+      <c r="B57" s="29" t="s">
         <v>116</v>
-      </c>
-      <c r="B57" s="29" t="s">
-        <v>117</v>
       </c>
       <c r="C57" s="12">
         <v>5.5029482841491699</v>
@@ -2763,10 +2758,10 @@
     </row>
     <row r="58" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A58" s="17" t="s">
+        <v>117</v>
+      </c>
+      <c r="B58" s="18" t="s">
         <v>118</v>
-      </c>
-      <c r="B58" s="18" t="s">
-        <v>119</v>
       </c>
       <c r="C58" s="19">
         <v>5.4887366294860902</v>
@@ -2789,10 +2784,10 @@
     </row>
     <row r="59" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A59" s="17" t="s">
+        <v>119</v>
+      </c>
+      <c r="B59" s="18" t="s">
         <v>120</v>
-      </c>
-      <c r="B59" s="18" t="s">
-        <v>121</v>
       </c>
       <c r="C59" s="19">
         <v>3.4473814964294398</v>
@@ -2815,10 +2810,10 @@
     </row>
     <row r="60" spans="1:8" ht="15" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A60" s="10" t="s">
+        <v>121</v>
+      </c>
+      <c r="B60" s="14" t="s">
         <v>122</v>
-      </c>
-      <c r="B60" s="14" t="s">
-        <v>123</v>
       </c>
       <c r="C60" s="15">
         <v>4.1794939041137704</v>
@@ -2842,7 +2837,7 @@
     <row r="61" spans="1:8" ht="15" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A61" s="24"/>
       <c r="B61" s="25" t="s">
-        <v>124</v>
+        <v>123</v>
       </c>
       <c r="C61" s="26">
         <v>4.8759611203120299</v>
@@ -2866,7 +2861,7 @@
     <row r="62" spans="1:8" ht="15" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A62" s="30"/>
       <c r="B62" s="31" t="s">
-        <v>125</v>
+        <v>124</v>
       </c>
       <c r="C62" s="32">
         <v>4.4983025888602004</v>
@@ -2890,7 +2885,7 @@
     <row r="63" spans="1:8" ht="15" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A63" s="30"/>
       <c r="B63" s="31" t="s">
-        <v>126</v>
+        <v>125</v>
       </c>
       <c r="C63" s="32">
         <v>5.9024856242266601</v>
@@ -2914,7 +2909,7 @@
     <row r="64" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A64" s="34"/>
       <c r="B64" s="35" t="s">
-        <v>127</v>
+        <v>126</v>
       </c>
       <c r="C64" s="36">
         <v>5.81057410654814</v>
@@ -2938,7 +2933,7 @@
     <row r="65" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A65" s="34"/>
       <c r="B65" s="38" t="s">
-        <v>128</v>
+        <v>127</v>
       </c>
       <c r="C65" s="39">
         <v>4.9294316598347301</v>
@@ -2962,7 +2957,7 @@
     <row r="66" spans="1:8" ht="15" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A66" s="34"/>
       <c r="B66" s="41" t="s">
-        <v>129</v>
+        <v>128</v>
       </c>
       <c r="C66" s="42">
         <v>5.4758983729760899</v>
@@ -2986,7 +2981,7 @@
     <row r="67" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A67" s="34"/>
       <c r="B67" s="38" t="s">
-        <v>130</v>
+        <v>129</v>
       </c>
       <c r="C67" s="39">
         <v>4.4224450839193299</v>
@@ -3010,7 +3005,7 @@
     <row r="68" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A68" s="34"/>
       <c r="B68" s="38" t="s">
-        <v>131</v>
+        <v>130</v>
       </c>
       <c r="C68" s="39">
         <v>4.6637298127879303</v>
@@ -3034,7 +3029,7 @@
     <row r="69" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A69" s="34"/>
       <c r="B69" s="38" t="s">
-        <v>132</v>
+        <v>131</v>
       </c>
       <c r="C69" s="39">
         <v>3.80553929011027</v>
@@ -3058,7 +3053,7 @@
     <row r="70" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A70" s="34"/>
       <c r="B70" s="38" t="s">
-        <v>133</v>
+        <v>132</v>
       </c>
       <c r="C70" s="39">
         <v>4.2493401898278096</v>
@@ -3082,7 +3077,7 @@
     <row r="71" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A71" s="34"/>
       <c r="B71" s="38" t="s">
-        <v>134</v>
+        <v>133</v>
       </c>
       <c r="C71" s="39">
         <v>4.8759611203120299</v>
@@ -3106,7 +3101,7 @@
     <row r="72" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A72" s="34"/>
       <c r="B72" s="38" t="s">
-        <v>135</v>
+        <v>134</v>
       </c>
       <c r="C72" s="39">
         <v>4.2470204830169704</v>
@@ -3130,7 +3125,7 @@
     <row r="73" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A73" s="34"/>
       <c r="B73" s="38" t="s">
-        <v>136</v>
+        <v>135</v>
       </c>
       <c r="C73" s="39">
         <v>4.2953600883483896</v>
@@ -3154,7 +3149,7 @@
     <row r="74" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A74" s="34"/>
       <c r="B74" s="38" t="s">
-        <v>136</v>
+        <v>135</v>
       </c>
       <c r="C74" s="39">
         <v>4.7521795272827196</v>
@@ -3178,7 +3173,7 @@
     <row r="75" spans="1:8" ht="15" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A75" s="34"/>
       <c r="B75" s="41" t="s">
-        <v>137</v>
+        <v>136</v>
       </c>
       <c r="C75" s="42">
         <v>4.36348533630371</v>
@@ -3202,7 +3197,7 @@
     <row r="76" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A76" s="34"/>
       <c r="B76" s="38" t="s">
-        <v>138</v>
+        <v>137</v>
       </c>
       <c r="C76" s="39">
         <v>5.2974608209398104</v>
@@ -3226,7 +3221,7 @@
     <row r="77" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A77" s="34"/>
       <c r="B77" s="38" t="s">
-        <v>139</v>
+        <v>138</v>
       </c>
       <c r="C77" s="39">
         <v>5.7807843901894298</v>
@@ -3250,7 +3245,7 @@
     <row r="78" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A78" s="34"/>
       <c r="B78" s="38" t="s">
-        <v>139</v>
+        <v>138</v>
       </c>
       <c r="C78" s="39">
         <v>6.63210845876623</v>
@@ -3274,7 +3269,7 @@
     <row r="79" spans="1:8" ht="15" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A79" s="34"/>
       <c r="B79" s="41" t="s">
-        <v>140</v>
+        <v>139</v>
       </c>
       <c r="C79" s="42">
         <v>6.7058766641114902</v>
@@ -3298,7 +3293,7 @@
     <row r="80" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A80" s="34"/>
       <c r="B80" s="38" t="s">
-        <v>141</v>
+        <v>140</v>
       </c>
       <c r="C80" s="39">
         <v>4.7378838062286404</v>
@@ -3322,7 +3317,7 @@
     <row r="81" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A81" s="34"/>
       <c r="B81" s="38" t="s">
-        <v>142</v>
+        <v>141</v>
       </c>
       <c r="C81" s="39">
         <v>5.7257954014672201</v>
@@ -3346,7 +3341,7 @@
     <row r="82" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A82" s="34"/>
       <c r="B82" s="38" t="s">
-        <v>143</v>
+        <v>142</v>
       </c>
       <c r="C82" s="39">
         <v>4.4503863453865096</v>
@@ -3370,7 +3365,7 @@
     <row r="83" spans="1:8" ht="15" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A83" s="34"/>
       <c r="B83" s="41" t="s">
-        <v>144</v>
+        <v>143</v>
       </c>
       <c r="C83" s="42">
         <v>5.9370554504187201</v>
@@ -3394,7 +3389,7 @@
     <row r="84" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A84" s="34"/>
       <c r="B84" s="38" t="s">
-        <v>145</v>
+        <v>144</v>
       </c>
       <c r="C84" s="39">
         <v>4.3069960162753196</v>
@@ -3418,7 +3413,7 @@
     <row r="85" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A85" s="34"/>
       <c r="B85" s="38" t="s">
-        <v>146</v>
+        <v>145</v>
       </c>
       <c r="C85" s="39">
         <v>3.34463914235433</v>
@@ -3442,7 +3437,7 @@
     <row r="86" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A86" s="34"/>
       <c r="B86" s="38" t="s">
-        <v>147</v>
+        <v>146</v>
       </c>
       <c r="C86" s="39">
         <v>4.5877522059849296</v>
@@ -3466,7 +3461,7 @@
     <row r="87" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A87" s="34"/>
       <c r="B87" s="38" t="s">
-        <v>148</v>
+        <v>147</v>
       </c>
       <c r="C87" s="39">
         <v>5.2181411286195098</v>
@@ -3490,7 +3485,7 @@
     <row r="88" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A88" s="34"/>
       <c r="B88" s="38" t="s">
-        <v>149</v>
+        <v>148</v>
       </c>
       <c r="C88" s="39">
         <v>4.8548019329706804</v>
@@ -3514,7 +3509,7 @@
     <row r="89" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A89" s="34"/>
       <c r="B89" s="38" t="s">
-        <v>150</v>
+        <v>149</v>
       </c>
       <c r="C89" s="39">
         <v>5.6058396233452701</v>
@@ -3538,7 +3533,7 @@
     <row r="90" spans="1:8" ht="15" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A90" s="34"/>
       <c r="B90" s="41" t="s">
-        <v>151</v>
+        <v>150</v>
       </c>
       <c r="C90" s="42">
         <v>6.68739256651505</v>
@@ -3562,7 +3557,7 @@
     <row r="91" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A91" s="34"/>
       <c r="B91" s="38" t="s">
-        <v>152</v>
+        <v>151</v>
       </c>
       <c r="C91" s="39">
         <v>4.3134707609812404</v>
@@ -3586,7 +3581,7 @@
     <row r="92" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A92" s="34"/>
       <c r="B92" s="38" t="s">
-        <v>153</v>
+        <v>152</v>
       </c>
       <c r="C92" s="39">
         <v>4.4545014169481103</v>
@@ -3610,7 +3605,7 @@
     <row r="93" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A93" s="34"/>
       <c r="B93" s="38" t="s">
-        <v>154</v>
+        <v>153</v>
       </c>
       <c r="C93" s="39">
         <v>5.3119583129882804</v>
@@ -3634,7 +3629,7 @@
     <row r="94" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A94" s="34"/>
       <c r="B94" s="38" t="s">
-        <v>155</v>
+        <v>154</v>
       </c>
       <c r="C94" s="39">
         <v>5.6953866481780997</v>
@@ -3658,7 +3653,7 @@
     <row r="95" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A95" s="34"/>
       <c r="B95" s="38" t="s">
-        <v>156</v>
+        <v>155</v>
       </c>
       <c r="C95" s="39">
         <v>4.0471984744071996</v>
@@ -3682,7 +3677,7 @@
     <row r="96" spans="1:8" ht="15" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A96" s="34"/>
       <c r="B96" s="41" t="s">
-        <v>156</v>
+        <v>155</v>
       </c>
       <c r="C96" s="42">
         <v>5.3974973708391198</v>
@@ -3706,7 +3701,7 @@
     <row r="97" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A97" s="34"/>
       <c r="B97" s="38" t="s">
-        <v>157</v>
+        <v>156</v>
       </c>
       <c r="C97" s="39">
         <v>4.4416541211745297</v>
@@ -3730,7 +3725,7 @@
     <row r="98" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A98" s="34"/>
       <c r="B98" s="38" t="s">
-        <v>158</v>
+        <v>157</v>
       </c>
       <c r="C98" s="39">
         <v>4.7103739529848099</v>
@@ -3754,7 +3749,7 @@
     <row r="99" spans="1:8" ht="15" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A99" s="34"/>
       <c r="B99" s="41" t="s">
-        <v>159</v>
+        <v>158</v>
       </c>
       <c r="C99" s="42">
         <v>3.9294497966766402</v>
@@ -3787,7 +3782,7 @@
     </row>
     <row r="101" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A101" s="47" t="s">
-        <v>160</v>
+        <v>159</v>
       </c>
       <c r="B101" s="48"/>
       <c r="C101" s="49"/>
@@ -3799,7 +3794,7 @@
     </row>
     <row r="102" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A102" s="47" t="s">
-        <v>161</v>
+        <v>160</v>
       </c>
       <c r="B102" s="48"/>
       <c r="C102" s="49"/>
@@ -3811,7 +3806,7 @@
     </row>
     <row r="103" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A103" s="47" t="s">
-        <v>162</v>
+        <v>161</v>
       </c>
       <c r="B103" s="48"/>
       <c r="C103" s="49"/>
@@ -3823,7 +3818,7 @@
     </row>
     <row r="104" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A104" s="47" t="s">
-        <v>163</v>
+        <v>162</v>
       </c>
       <c r="B104" s="48"/>
       <c r="C104" s="49"/>
@@ -3835,7 +3830,7 @@
     </row>
     <row r="105" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A105" s="47" t="s">
-        <v>164</v>
+        <v>163</v>
       </c>
       <c r="B105" s="48"/>
       <c r="C105" s="49"/>
@@ -3865,7 +3860,7 @@
     </row>
     <row r="108" spans="1:8" ht="15.5" x14ac:dyDescent="0.35">
       <c r="B108" s="50" t="s">
-        <v>165</v>
+        <v>164</v>
       </c>
       <c r="C108" s="49"/>
       <c r="D108" s="49"/>
@@ -3885,7 +3880,7 @@
     </row>
     <row r="110" spans="1:8" x14ac:dyDescent="0.35">
       <c r="B110" s="2" t="s">
-        <v>166</v>
+        <v>165</v>
       </c>
       <c r="C110" s="49"/>
       <c r="D110" s="49"/>
@@ -3896,7 +3891,7 @@
     </row>
     <row r="111" spans="1:8" x14ac:dyDescent="0.35">
       <c r="B111" s="2" t="s">
-        <v>167</v>
+        <v>166</v>
       </c>
       <c r="C111" s="49"/>
       <c r="D111" s="49"/>
@@ -3916,7 +3911,7 @@
     </row>
     <row r="113" spans="2:8" x14ac:dyDescent="0.35">
       <c r="B113" s="2" t="s">
-        <v>168</v>
+        <v>167</v>
       </c>
       <c r="C113" s="49"/>
       <c r="D113" s="49"/>
@@ -3927,7 +3922,7 @@
     </row>
     <row r="114" spans="2:8" x14ac:dyDescent="0.35">
       <c r="B114" s="2" t="s">
-        <v>169</v>
+        <v>168</v>
       </c>
       <c r="C114" s="49"/>
       <c r="D114" s="49"/>
@@ -3947,7 +3942,6 @@
     </row>
   </sheetData>
   <hyperlinks>
-    <hyperlink ref="B1" location="Contenu!A1" display="Retour au Contenu"/>
     <hyperlink ref="B108" r:id="rId1"/>
     <hyperlink ref="B110" r:id="rId2"/>
     <hyperlink ref="B111" r:id="rId3"/>

--- a/DDAf_2022_Tableau_annexe_Tab16.xlsx
+++ b/DDAf_2022_Tableau_annexe_Tab16.xlsx
@@ -9,7 +9,7 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="10490"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="19200" windowHeight="5590"/>
   </bookViews>
   <sheets>
     <sheet name="Tab16" sheetId="1" r:id="rId1"/>
@@ -23,7 +23,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="212" uniqueCount="169">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="212" uniqueCount="170">
   <si>
     <t>Tableau 16 : Bien-être subjectif</t>
   </si>
@@ -484,19 +484,22 @@
     <t>RDM, pays les moins avancés</t>
   </si>
   <si>
-    <t>Afrique, petits Etats insulaires en développement</t>
-  </si>
-  <si>
-    <t>RDM, petits Etats insulaires en développement</t>
+    <t>Afrique, petits États insulaires en développement</t>
+  </si>
+  <si>
+    <t>RDM, petits États insulaires en développement</t>
   </si>
   <si>
     <t>Afrique, pays en développement sans littoral</t>
   </si>
   <si>
-    <t>Afrique, Etats fragiles</t>
-  </si>
-  <si>
-    <t>RDM, Etats fragiles</t>
+    <t>RDM, pays en développement sans littoral</t>
+  </si>
+  <si>
+    <t>Afrique, États fragiles</t>
+  </si>
+  <si>
+    <t>RDM, États fragiles</t>
   </si>
   <si>
     <t>États extrêmement fragiles</t>
@@ -511,7 +514,7 @@
     <t>Communautées économiques régionales : CEN-SAD = "Communauté des États sahélo-sahariens ";COMESA = "Marché commun de l'Afrique orientale et australe";CAE = "Communauté d'Afrique de l'Est ";CEEAC = "Communauté économique des États de l'Afrique centrale";CÉDÉAOO = "Communauté économique des États de l'Afrique de l'Ouest";IGAD = "Autorité intergouvernementale pour le développement";CDAA = "Communauté de développement d'Afrique australe";UMA = "Union du Maghreb arabe";ASEAN = "Association des nations de l'Asie du Sud-Est";MERCOSUR = "Marché commun du Sud";</t>
   </si>
   <si>
-    <t>Responsabilité : Ce document, ainsi que les données et cartes qu'il peut comprendre, sont sans préjudice du statut de tout territoire, de la souveraineté s'exerçant sur ce dernier, du tracé des frontières et limites internationales, et du nom de tout territoire, ville ou région.</t>
+    <t>Responsabilité : Ce tableau ainsi que toutes les données qu'il peut comprendre, sont sans préjudice du statut de tout territoire, de la souveraineté s'exerçant sur ce dernier, du tracé des frontières et limites internationales, et du nom de tout territoire, ville ou région.</t>
   </si>
   <si>
     <t>Source : base de données en ligne du World Happiness Report 2021.</t>
@@ -3677,7 +3680,7 @@
     <row r="96" spans="1:8" ht="15" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A96" s="34"/>
       <c r="B96" s="41" t="s">
-        <v>155</v>
+        <v>156</v>
       </c>
       <c r="C96" s="42">
         <v>5.3974973708391198</v>
@@ -3701,7 +3704,7 @@
     <row r="97" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A97" s="34"/>
       <c r="B97" s="38" t="s">
-        <v>156</v>
+        <v>157</v>
       </c>
       <c r="C97" s="39">
         <v>4.4416541211745297</v>
@@ -3725,7 +3728,7 @@
     <row r="98" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A98" s="34"/>
       <c r="B98" s="38" t="s">
-        <v>157</v>
+        <v>158</v>
       </c>
       <c r="C98" s="39">
         <v>4.7103739529848099</v>
@@ -3749,7 +3752,7 @@
     <row r="99" spans="1:8" ht="15" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A99" s="34"/>
       <c r="B99" s="41" t="s">
-        <v>158</v>
+        <v>159</v>
       </c>
       <c r="C99" s="42">
         <v>3.9294497966766402</v>
@@ -3782,7 +3785,7 @@
     </row>
     <row r="101" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A101" s="47" t="s">
-        <v>159</v>
+        <v>160</v>
       </c>
       <c r="B101" s="48"/>
       <c r="C101" s="49"/>
@@ -3794,7 +3797,7 @@
     </row>
     <row r="102" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A102" s="47" t="s">
-        <v>160</v>
+        <v>161</v>
       </c>
       <c r="B102" s="48"/>
       <c r="C102" s="49"/>
@@ -3806,7 +3809,7 @@
     </row>
     <row r="103" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A103" s="47" t="s">
-        <v>161</v>
+        <v>162</v>
       </c>
       <c r="B103" s="48"/>
       <c r="C103" s="49"/>
@@ -3818,7 +3821,7 @@
     </row>
     <row r="104" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A104" s="47" t="s">
-        <v>162</v>
+        <v>163</v>
       </c>
       <c r="B104" s="48"/>
       <c r="C104" s="49"/>
@@ -3830,7 +3833,7 @@
     </row>
     <row r="105" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A105" s="47" t="s">
-        <v>163</v>
+        <v>164</v>
       </c>
       <c r="B105" s="48"/>
       <c r="C105" s="49"/>
@@ -3860,7 +3863,7 @@
     </row>
     <row r="108" spans="1:8" ht="15.5" x14ac:dyDescent="0.35">
       <c r="B108" s="50" t="s">
-        <v>164</v>
+        <v>165</v>
       </c>
       <c r="C108" s="49"/>
       <c r="D108" s="49"/>
@@ -3880,7 +3883,7 @@
     </row>
     <row r="110" spans="1:8" x14ac:dyDescent="0.35">
       <c r="B110" s="2" t="s">
-        <v>165</v>
+        <v>166</v>
       </c>
       <c r="C110" s="49"/>
       <c r="D110" s="49"/>
@@ -3891,7 +3894,7 @@
     </row>
     <row r="111" spans="1:8" x14ac:dyDescent="0.35">
       <c r="B111" s="2" t="s">
-        <v>166</v>
+        <v>167</v>
       </c>
       <c r="C111" s="49"/>
       <c r="D111" s="49"/>
@@ -3911,7 +3914,7 @@
     </row>
     <row r="113" spans="2:8" x14ac:dyDescent="0.35">
       <c r="B113" s="2" t="s">
-        <v>167</v>
+        <v>168</v>
       </c>
       <c r="C113" s="49"/>
       <c r="D113" s="49"/>
@@ -3922,7 +3925,7 @@
     </row>
     <row r="114" spans="2:8" x14ac:dyDescent="0.35">
       <c r="B114" s="2" t="s">
-        <v>168</v>
+        <v>169</v>
       </c>
       <c r="C114" s="49"/>
       <c r="D114" s="49"/>

--- a/DDAf_2022_Tableau_annexe_Tab16.xlsx
+++ b/DDAf_2022_Tableau_annexe_Tab16.xlsx
@@ -9,7 +9,7 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="19200" windowHeight="5590"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="12490"/>
   </bookViews>
   <sheets>
     <sheet name="Tab16" sheetId="1" r:id="rId1"/>

--- a/DDAf_2022_Tableau_annexe_Tab16.xlsx
+++ b/DDAf_2022_Tableau_annexe_Tab16.xlsx
@@ -9,7 +9,7 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="12490"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="19200" windowHeight="10400"/>
   </bookViews>
   <sheets>
     <sheet name="Tab16" sheetId="1" r:id="rId1"/>
@@ -23,7 +23,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="212" uniqueCount="170">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="218" uniqueCount="170">
   <si>
     <t>Tableau 16 : Bien-être subjectif</t>
   </si>
@@ -34,22 +34,22 @@
     <t>Pays (pays riches en ressources ombrés)</t>
   </si>
   <si>
-    <t>Échelle de satisfaction existentielle Cantril, 2011-20</t>
-  </si>
-  <si>
-    <t>Affect négatif, mesures les plus récentes 2011-20</t>
-  </si>
-  <si>
-    <t>Affect positif, mesures les plus récentes 2011-20</t>
-  </si>
-  <si>
-    <t>Liberté de faire des choix de vie, mesures les plus récentes 2011-20</t>
-  </si>
-  <si>
-    <t>Générosité, mesures les plus récentes 2011-20</t>
-  </si>
-  <si>
-    <t>Soutien sociale, mesures les plus récentes 2011-20</t>
+    <t>Échelle de satisfaction existentielle Cantril, 2012-21</t>
+  </si>
+  <si>
+    <t>Affect négatif, mesures les plus récentes 2012-21</t>
+  </si>
+  <si>
+    <t>Affect positif, mesures les plus récentes 2012-21</t>
+  </si>
+  <si>
+    <t>Liberté de faire des choix de vie, mesures les plus récentes 2012-21</t>
+  </si>
+  <si>
+    <t>Générosité, mesures les plus récentes 2012-21</t>
+  </si>
+  <si>
+    <t>Soutien sociale, mesures les plus récentes 2012-21</t>
   </si>
   <si>
     <t>AGO</t>
@@ -1908,23 +1908,23 @@
       <c r="B25" s="18" t="s">
         <v>54</v>
       </c>
-      <c r="C25" s="19">
-        <v>4.3691935539245597</v>
-      </c>
-      <c r="D25" s="19">
-        <v>0.18059262633324</v>
-      </c>
-      <c r="E25" s="19">
-        <v>0.57930284738541005</v>
-      </c>
-      <c r="F25" s="19">
-        <v>0.74643945693970004</v>
-      </c>
-      <c r="G25" s="19">
-        <v>-5.7318914681700001E-2</v>
-      </c>
-      <c r="H25" s="20">
-        <v>0.63297325372696001</v>
+      <c r="C25" s="19" t="s">
+        <v>45</v>
+      </c>
+      <c r="D25" s="19" t="s">
+        <v>45</v>
+      </c>
+      <c r="E25" s="19" t="s">
+        <v>45</v>
+      </c>
+      <c r="F25" s="19" t="s">
+        <v>45</v>
+      </c>
+      <c r="G25" s="19" t="s">
+        <v>45</v>
+      </c>
+      <c r="H25" s="20" t="s">
+        <v>45</v>
       </c>
     </row>
     <row r="26" spans="1:8" x14ac:dyDescent="0.35">
@@ -2247,22 +2247,22 @@
         <v>79</v>
       </c>
       <c r="C38" s="26">
-        <v>4.3121653199195897</v>
+        <v>4.3069809350100403</v>
       </c>
       <c r="D38" s="26">
-        <v>0.30287291854620002</v>
+        <v>0.31398930874738001</v>
       </c>
       <c r="E38" s="26">
-        <v>0.69557895759740995</v>
+        <v>0.70614951307122997</v>
       </c>
       <c r="F38" s="26">
-        <v>0.69148479402065</v>
+        <v>0.68648891557347003</v>
       </c>
       <c r="G38" s="26">
-        <v>8.6230002716180004E-2</v>
+        <v>0.10217988242706</v>
       </c>
       <c r="H38" s="27">
-        <v>0.69555072734752998</v>
+        <v>0.70123958858576996</v>
       </c>
     </row>
     <row r="39" spans="1:8" x14ac:dyDescent="0.35">
@@ -2867,22 +2867,22 @@
         <v>124</v>
       </c>
       <c r="C62" s="32">
-        <v>4.4983025888602004</v>
+        <v>4.5010495896035101</v>
       </c>
       <c r="D62" s="32">
-        <v>0.34486387825261</v>
+        <v>0.34835901127217</v>
       </c>
       <c r="E62" s="32">
-        <v>0.67165619259079001</v>
+        <v>0.67362115738240003</v>
       </c>
       <c r="F62" s="32">
-        <v>0.69515286820629996</v>
+        <v>0.69406166419070003</v>
       </c>
       <c r="G62" s="32">
-        <v>6.3634510658199996E-3</v>
+        <v>7.7786147490999996E-3</v>
       </c>
       <c r="H62" s="33">
-        <v>0.68625537119806002</v>
+        <v>0.68738903327191003</v>
       </c>
     </row>
     <row r="63" spans="1:8" ht="15" thickBot="1" x14ac:dyDescent="0.4">
@@ -2891,19 +2891,19 @@
         <v>125</v>
       </c>
       <c r="C63" s="32">
-        <v>5.9024856242266601</v>
+        <v>5.8937654735845202</v>
       </c>
       <c r="D63" s="32">
-        <v>0.29446189898417002</v>
+        <v>0.29445539704627</v>
       </c>
       <c r="E63" s="32">
         <v>0.72120975095916995</v>
       </c>
       <c r="F63" s="32">
-        <v>0.82896242954513999</v>
+        <v>0.82816123142154996</v>
       </c>
       <c r="G63" s="32">
-        <v>-4.5271786649000003E-3</v>
+        <v>-4.7972306924999996E-3</v>
       </c>
       <c r="H63" s="33">
         <v>0.85064957885567005</v>
@@ -2963,22 +2963,22 @@
         <v>128</v>
       </c>
       <c r="C66" s="42">
-        <v>5.4758983729760899</v>
+        <v>5.47416517520562</v>
       </c>
       <c r="D66" s="42">
-        <v>0.30987142130827</v>
+        <v>0.31080036394058003</v>
       </c>
       <c r="E66" s="42">
-        <v>0.70596250223043999</v>
+        <v>0.70677966129394998</v>
       </c>
       <c r="F66" s="42">
-        <v>0.78831142356879003</v>
+        <v>0.78775943873020005</v>
       </c>
       <c r="G66" s="42">
-        <v>-1.315839129E-3</v>
+        <v>-1.1224706609000001E-3</v>
       </c>
       <c r="H66" s="43">
-        <v>0.80038892938073003</v>
+        <v>0.80146210678876995</v>
       </c>
     </row>
     <row r="67" spans="1:8" x14ac:dyDescent="0.35">
@@ -2987,22 +2987,22 @@
         <v>129</v>
       </c>
       <c r="C67" s="39">
-        <v>4.4224450839193299</v>
+        <v>4.4254035022523697</v>
       </c>
       <c r="D67" s="39">
-        <v>0.32697827721896999</v>
+        <v>0.33511081337929</v>
       </c>
       <c r="E67" s="39">
-        <v>0.67858117818831998</v>
+        <v>0.68409664101070999</v>
       </c>
       <c r="F67" s="39">
-        <v>0.70087609949865004</v>
+        <v>0.69834480186303005</v>
       </c>
       <c r="G67" s="39">
-        <v>4.7162948952400004E-3</v>
+        <v>8.3654248703500002E-3</v>
       </c>
       <c r="H67" s="40">
-        <v>0.69552625009888003</v>
+        <v>0.69900141656398995</v>
       </c>
     </row>
     <row r="68" spans="1:8" x14ac:dyDescent="0.35">
@@ -3011,22 +3011,22 @@
         <v>130</v>
       </c>
       <c r="C68" s="39">
-        <v>4.6637298127879303</v>
+        <v>4.6771178245544398</v>
       </c>
       <c r="D68" s="39">
-        <v>0.35643223640711003</v>
+        <v>0.36442494595593</v>
       </c>
       <c r="E68" s="39">
-        <v>0.67158895990123002</v>
+        <v>0.67578378319739996</v>
       </c>
       <c r="F68" s="39">
-        <v>0.70224453703217005</v>
+        <v>0.70023567703637002</v>
       </c>
       <c r="G68" s="39">
-        <v>9.5098617867699995E-3</v>
+        <v>1.269218447574E-2</v>
       </c>
       <c r="H68" s="40">
-        <v>0.65224280046380001</v>
+        <v>0.65311868895184</v>
       </c>
     </row>
     <row r="69" spans="1:8" x14ac:dyDescent="0.35">
@@ -3107,22 +3107,22 @@
         <v>134</v>
       </c>
       <c r="C72" s="39">
-        <v>4.2470204830169704</v>
+        <v>4.2266583045323696</v>
       </c>
       <c r="D72" s="39">
-        <v>0.30959500798157003</v>
+        <v>0.33109540492296002</v>
       </c>
       <c r="E72" s="39">
-        <v>0.67127794027329002</v>
+        <v>0.68660712242125999</v>
       </c>
       <c r="F72" s="39">
-        <v>0.66686857598169003</v>
+        <v>0.65360676248867999</v>
       </c>
       <c r="G72" s="39">
-        <v>9.4974089413879997E-2</v>
+        <v>0.13304734043777</v>
       </c>
       <c r="H72" s="40">
-        <v>0.69887776885714004</v>
+        <v>0.70986185471217</v>
       </c>
     </row>
     <row r="73" spans="1:8" x14ac:dyDescent="0.35">
@@ -3323,19 +3323,19 @@
         <v>141</v>
       </c>
       <c r="C81" s="39">
-        <v>5.7257954014672201</v>
+        <v>5.6594903048346996</v>
       </c>
       <c r="D81" s="39">
-        <v>0.28679689351054999</v>
+        <v>0.28630470440667999</v>
       </c>
       <c r="E81" s="39">
         <v>0.69542780693840001</v>
       </c>
       <c r="F81" s="39">
-        <v>0.81619344154994</v>
+        <v>0.81030523075776995</v>
       </c>
       <c r="G81" s="39">
-        <v>4.6778845911200004E-3</v>
+        <v>3.4878488410900002E-3</v>
       </c>
       <c r="H81" s="40">
         <v>0.85935812837936998</v>
@@ -3347,22 +3347,22 @@
         <v>142</v>
       </c>
       <c r="C82" s="39">
-        <v>4.4503863453865096</v>
+        <v>4.4524682118342502</v>
       </c>
       <c r="D82" s="39">
-        <v>0.34289946034551</v>
+        <v>0.34706117403813003</v>
       </c>
       <c r="E82" s="39">
-        <v>0.67515795379876997</v>
+        <v>0.67761577704013998</v>
       </c>
       <c r="F82" s="39">
-        <v>0.71362835317850004</v>
+        <v>0.71278704282564997</v>
       </c>
       <c r="G82" s="39">
-        <v>1.9053960071970001E-2</v>
+        <v>2.1118091822070001E-2</v>
       </c>
       <c r="H82" s="40">
-        <v>0.67475002631545</v>
+        <v>0.67582122561258995</v>
       </c>
     </row>
     <row r="83" spans="1:8" ht="15" thickBot="1" x14ac:dyDescent="0.4">
@@ -3443,22 +3443,22 @@
         <v>146</v>
       </c>
       <c r="C86" s="39">
-        <v>4.5877522059849296</v>
+        <v>4.5986801385879499</v>
       </c>
       <c r="D86" s="39">
-        <v>0.31641280012471001</v>
+        <v>0.32320380881429001</v>
       </c>
       <c r="E86" s="39">
-        <v>0.67088045108885996</v>
+        <v>0.67545933127403002</v>
       </c>
       <c r="F86" s="39">
-        <v>0.68461577523322004</v>
+        <v>0.68152459114789998</v>
       </c>
       <c r="G86" s="39">
-        <v>-1.3831877393599999E-2</v>
+        <v>-1.16575255292E-2</v>
       </c>
       <c r="H86" s="40">
-        <v>0.69265891540617996</v>
+        <v>0.69564319849014</v>
       </c>
     </row>
     <row r="87" spans="1:8" x14ac:dyDescent="0.35">
@@ -3539,19 +3539,19 @@
         <v>150</v>
       </c>
       <c r="C90" s="42">
-        <v>6.68739256651505</v>
+        <v>6.6837128003438302</v>
       </c>
       <c r="D90" s="42">
-        <v>0.25766610742911</v>
+        <v>0.25683281852139001</v>
       </c>
       <c r="E90" s="42">
         <v>0.74765062597063003</v>
       </c>
       <c r="F90" s="42">
-        <v>0.86583443957826001</v>
+        <v>0.86471313767962998</v>
       </c>
       <c r="G90" s="42">
-        <v>-2.4438687124400001E-2</v>
+        <v>-2.5535291112500001E-2</v>
       </c>
       <c r="H90" s="43">
         <v>0.91585633489820995</v>
@@ -3563,22 +3563,22 @@
         <v>151</v>
       </c>
       <c r="C91" s="39">
-        <v>4.3134707609812404</v>
+        <v>4.3115492853625099</v>
       </c>
       <c r="D91" s="39">
-        <v>0.36040075471004002</v>
+        <v>0.36660103499889002</v>
       </c>
       <c r="E91" s="39">
-        <v>0.66324841578800997</v>
+        <v>0.66614309056052001</v>
       </c>
       <c r="F91" s="39">
-        <v>0.68400356074173996</v>
+        <v>0.68185059880387999</v>
       </c>
       <c r="G91" s="39">
-        <v>4.0061898030609999E-2</v>
+        <v>4.3668594797729998E-2</v>
       </c>
       <c r="H91" s="40">
-        <v>0.66050478915374</v>
+        <v>0.66145415244431005</v>
       </c>
     </row>
     <row r="92" spans="1:8" x14ac:dyDescent="0.35">
@@ -3707,22 +3707,22 @@
         <v>157</v>
       </c>
       <c r="C97" s="39">
-        <v>4.4416541211745297</v>
+        <v>4.4438498959396799</v>
       </c>
       <c r="D97" s="39">
-        <v>0.35823909806854998</v>
+        <v>0.36362232448477</v>
       </c>
       <c r="E97" s="39">
-        <v>0.67238231967477002</v>
+        <v>0.67520290974414998</v>
       </c>
       <c r="F97" s="39">
-        <v>0.67330270216746002</v>
+        <v>0.67108643687132996</v>
       </c>
       <c r="G97" s="39">
-        <v>3.9450275638960003E-2</v>
+        <v>4.2571862423490002E-2</v>
       </c>
       <c r="H97" s="40">
-        <v>0.68401373484554995</v>
+        <v>0.68556041609157004</v>
       </c>
     </row>
     <row r="98" spans="1:8" x14ac:dyDescent="0.35">

--- a/DDAf_2022_Tableau_annexe_Tab16.xlsx
+++ b/DDAf_2022_Tableau_annexe_Tab16.xlsx
@@ -9,7 +9,7 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="19200" windowHeight="10400"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="19200" windowHeight="5590"/>
   </bookViews>
   <sheets>
     <sheet name="Tab16" sheetId="1" r:id="rId1"/>

--- a/DDAf_2022_Tableau_annexe_Tab16.xlsx
+++ b/DDAf_2022_Tableau_annexe_Tab16.xlsx
@@ -9,7 +9,7 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="19200" windowHeight="5590"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="11490"/>
   </bookViews>
   <sheets>
     <sheet name="Tab16" sheetId="1" r:id="rId1"/>
@@ -475,7 +475,7 @@
     <t>RDM, pays à revenu intermédiaire, tranche supérieure</t>
   </si>
   <si>
-    <t>Pays à revenu élévé</t>
+    <t>Pays à revenu élevé</t>
   </si>
   <si>
     <t>Afrique, pays les moins avancés</t>

--- a/DDAf_2022_Tableau_annexe_Tab16.xlsx
+++ b/DDAf_2022_Tableau_annexe_Tab16.xlsx
@@ -517,9 +517,6 @@
     <t>Responsabilité : Ce tableau ainsi que toutes les données qu'il peut comprendre, sont sans préjudice du statut de tout territoire, de la souveraineté s'exerçant sur ce dernier, du tracé des frontières et limites internationales, et du nom de tout territoire, ville ou région.</t>
   </si>
   <si>
-    <t>Source : base de données en ligne du World Happiness Report 2021.</t>
-  </si>
-  <si>
     <t>Si vous souhaitez explorer ces statistiques plus en profondeur, consulter les valeurs historiques de ces indicateurs ou produire des visualisations interactives, veuillez visiter le site Web https://oe.cd/AFDD-2022-fr.</t>
   </si>
   <si>
@@ -533,6 +530,9 @@
   </si>
   <si>
     <t>Pour télécharger l'intégralité de l'ensemble de données sous forme de fichier plat au format CSV compressé, cliquez ici.</t>
+  </si>
+  <si>
+    <t>Source : Base de données en ligne du World Happiness Report 2021.</t>
   </si>
 </sst>
 </file>
@@ -3833,7 +3833,7 @@
     </row>
     <row r="105" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A105" s="47" t="s">
-        <v>164</v>
+        <v>169</v>
       </c>
       <c r="B105" s="48"/>
       <c r="C105" s="49"/>
@@ -3863,7 +3863,7 @@
     </row>
     <row r="108" spans="1:8" ht="15.5" x14ac:dyDescent="0.35">
       <c r="B108" s="50" t="s">
-        <v>165</v>
+        <v>164</v>
       </c>
       <c r="C108" s="49"/>
       <c r="D108" s="49"/>
@@ -3883,7 +3883,7 @@
     </row>
     <row r="110" spans="1:8" x14ac:dyDescent="0.35">
       <c r="B110" s="2" t="s">
-        <v>166</v>
+        <v>165</v>
       </c>
       <c r="C110" s="49"/>
       <c r="D110" s="49"/>
@@ -3894,7 +3894,7 @@
     </row>
     <row r="111" spans="1:8" x14ac:dyDescent="0.35">
       <c r="B111" s="2" t="s">
-        <v>167</v>
+        <v>166</v>
       </c>
       <c r="C111" s="49"/>
       <c r="D111" s="49"/>
@@ -3914,7 +3914,7 @@
     </row>
     <row r="113" spans="2:8" x14ac:dyDescent="0.35">
       <c r="B113" s="2" t="s">
-        <v>168</v>
+        <v>167</v>
       </c>
       <c r="C113" s="49"/>
       <c r="D113" s="49"/>
@@ -3925,7 +3925,7 @@
     </row>
     <row r="114" spans="2:8" x14ac:dyDescent="0.35">
       <c r="B114" s="2" t="s">
-        <v>169</v>
+        <v>168</v>
       </c>
       <c r="C114" s="49"/>
       <c r="D114" s="49"/>

--- a/DDAf_2022_Tableau_annexe_Tab16.xlsx
+++ b/DDAf_2022_Tableau_annexe_Tab16.xlsx
@@ -9,7 +9,7 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="11490"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="12490"/>
   </bookViews>
   <sheets>
     <sheet name="Tab16" sheetId="1" r:id="rId1"/>
@@ -517,7 +517,10 @@
     <t>Responsabilité : Ce tableau ainsi que toutes les données qu'il peut comprendre, sont sans préjudice du statut de tout territoire, de la souveraineté s'exerçant sur ce dernier, du tracé des frontières et limites internationales, et du nom de tout territoire, ville ou région.</t>
   </si>
   <si>
-    <t>Si vous souhaitez explorer ces statistiques plus en profondeur, consulter les valeurs historiques de ces indicateurs ou produire des visualisations interactives, veuillez visiter le site Web https://oe.cd/AFDD-2022-fr.</t>
+    <t>Source : Base de données en ligne du World Happiness Report 2021.</t>
+  </si>
+  <si>
+    <t>Si vous souhaitez explorer ces statistiques plus en profondeur, consulter les valeurs historiques de ces indicateurs ou produire des visualisations interactives, veuillez visiter le site Web https://oe.cd/AFDD-2023-fr.</t>
   </si>
   <si>
     <t>Pour plus d'informations sur les indicateurs présentés dans ce tableau, consultez la liste des indicateurs, descriptions et détails.</t>
@@ -530,9 +533,6 @@
   </si>
   <si>
     <t>Pour télécharger l'intégralité de l'ensemble de données sous forme de fichier plat au format CSV compressé, cliquez ici.</t>
-  </si>
-  <si>
-    <t>Source : Base de données en ligne du World Happiness Report 2021.</t>
   </si>
 </sst>
 </file>
@@ -3833,7 +3833,7 @@
     </row>
     <row r="105" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A105" s="47" t="s">
-        <v>169</v>
+        <v>164</v>
       </c>
       <c r="B105" s="48"/>
       <c r="C105" s="49"/>
@@ -3863,7 +3863,7 @@
     </row>
     <row r="108" spans="1:8" ht="15.5" x14ac:dyDescent="0.35">
       <c r="B108" s="50" t="s">
-        <v>164</v>
+        <v>165</v>
       </c>
       <c r="C108" s="49"/>
       <c r="D108" s="49"/>
@@ -3883,7 +3883,7 @@
     </row>
     <row r="110" spans="1:8" x14ac:dyDescent="0.35">
       <c r="B110" s="2" t="s">
-        <v>165</v>
+        <v>166</v>
       </c>
       <c r="C110" s="49"/>
       <c r="D110" s="49"/>
@@ -3894,7 +3894,7 @@
     </row>
     <row r="111" spans="1:8" x14ac:dyDescent="0.35">
       <c r="B111" s="2" t="s">
-        <v>166</v>
+        <v>167</v>
       </c>
       <c r="C111" s="49"/>
       <c r="D111" s="49"/>
@@ -3914,7 +3914,7 @@
     </row>
     <row r="113" spans="2:8" x14ac:dyDescent="0.35">
       <c r="B113" s="2" t="s">
-        <v>167</v>
+        <v>168</v>
       </c>
       <c r="C113" s="49"/>
       <c r="D113" s="49"/>
@@ -3925,7 +3925,7 @@
     </row>
     <row r="114" spans="2:8" x14ac:dyDescent="0.35">
       <c r="B114" s="2" t="s">
-        <v>168</v>
+        <v>169</v>
       </c>
       <c r="C114" s="49"/>
       <c r="D114" s="49"/>
@@ -3945,7 +3945,7 @@
     </row>
   </sheetData>
   <hyperlinks>
-    <hyperlink ref="B108" r:id="rId1"/>
+    <hyperlink ref="B108" r:id="rId1" display="Si vous souhaitez explorer ces statistiques plus en profondeur, consulter les valeurs historiques de ces indicateurs ou produire des visualisations interactives, veuillez visiter le site Web https://oe.cd/AFDD-2022-fr."/>
     <hyperlink ref="B110" r:id="rId2"/>
     <hyperlink ref="B111" r:id="rId3"/>
     <hyperlink ref="B113" r:id="rId4"/>
